--- a/docs/宝时达新平台任务跟踪清单 - 20130806.xlsx
+++ b/docs/宝时达新平台任务跟踪清单 - 20130806.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="255" windowWidth="15360" windowHeight="7875" tabRatio="574" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="255" windowWidth="15360" windowHeight="7875" tabRatio="574" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="11" state="hidden" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$F$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">交易中心ERP!$B$2:$L$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">交易中心ERP!$B$2:$L$105</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">交易平台!$B$2:$L$269</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">物流网!$B$2:$M$67</definedName>
   </definedNames>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3552" uniqueCount="1261">
   <si>
     <t>问题</t>
   </si>
@@ -4768,6 +4768,15 @@
   <si>
     <t>R206
 SHL_00048</t>
+  </si>
+  <si>
+    <t>统一的审批设置和审批工作流</t>
+  </si>
+  <si>
+    <t>审批工作流</t>
+  </si>
+  <si>
+    <t>系统工具</t>
   </si>
 </sst>
 </file>
@@ -7568,11 +7577,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:L274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E267" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B267" sqref="B267"/>
+      <selection pane="bottomRight" activeCell="E274" sqref="E274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -16300,12 +16309,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="B2:L104"/>
+  <dimension ref="B2:L105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:N2"/>
-      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
+      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -19396,8 +19405,39 @@
         <v>155</v>
       </c>
     </row>
+    <row r="105" spans="2:12" s="43" customFormat="1" ht="24" customHeight="1">
+      <c r="B105" s="14">
+        <v>101</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="44" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E105" s="44" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F105" s="42" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G105" s="107">
+        <v>41496</v>
+      </c>
+      <c r="H105" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" s="20"/>
+      <c r="J105" s="41"/>
+      <c r="K105" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="L105" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:L104">
+  <autoFilter ref="B2:L105">
     <filterColumn colId="10">
       <filters>
         <filter val="In process"/>
